--- a/F360 - Finance360/Desenvolvimento/4.Teste/F360 - Roteiro de Teste.xlsx
+++ b/F360 - Finance360/Desenvolvimento/4.Teste/F360 - Roteiro de Teste.xlsx
@@ -1,30 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianoBalarinActive\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CC88D11-4BE0-4011-9EE3-C71C3C619EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" tabRatio="913" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" tabRatio="913" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
     <sheet name="AUX" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="UCS000" sheetId="3" r:id="rId3"/>
-    <sheet name="UCS001" sheetId="26" r:id="rId4"/>
-    <sheet name="USC007" sheetId="27" r:id="rId5"/>
+    <sheet name="UCS00" sheetId="28" r:id="rId3"/>
+    <sheet name="UCS01" sheetId="26" r:id="rId4"/>
+    <sheet name="UCS04" sheetId="3" r:id="rId5"/>
+    <sheet name="USC07" sheetId="27" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="___xlfn_IFERROR">NA()</definedName>
     <definedName name="__xlfn_IFERROR">NA()</definedName>
     <definedName name="combo_SimNao">AUX!$A$2:$A$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t>Caso de Uso</t>
   </si>
@@ -75,15 +70,6 @@
     <t>Massa de Teste:</t>
   </si>
   <si>
-    <t>UCS001</t>
-  </si>
-  <si>
-    <t>UCS002</t>
-  </si>
-  <si>
-    <t>&lt;Nome do Projeto&gt;</t>
-  </si>
-  <si>
     <t>Entradas</t>
   </si>
   <si>
@@ -117,92 +103,152 @@
     <t>Registrar-se</t>
   </si>
   <si>
-    <t>O usuário não deve estar logado no sistema</t>
-  </si>
-  <si>
     <t>Criação de Usuário</t>
   </si>
   <si>
     <t>E-mail não cadastrado e senha</t>
   </si>
   <si>
-    <t>Usuário deve ser cadastrado no sistema e redirecionado para a tela de login</t>
-  </si>
-  <si>
-    <t>E-mail já cadastrado e senha</t>
-  </si>
-  <si>
-    <t>Usuário não deve ser cadastrado no sistema e mensagem de erro explicativa deve ser exibida</t>
-  </si>
-  <si>
-    <t>Sem E-mail e sem senha</t>
-  </si>
-  <si>
-    <t>Formulário não deve ser submetido</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
-    <t>O usuário não deve estar logado no Sistema e possuir cadastro criado</t>
-  </si>
-  <si>
     <t>Efetuar login</t>
   </si>
   <si>
-    <t>Acessar tela de login e inserir email e senha</t>
-  </si>
-  <si>
     <t>Usuário deve ser autenticado e redirecionado para a tela de portfolio em que os seus Ativos devem ser exibidos</t>
   </si>
   <si>
-    <t>Acessar tela de login e inserir email errado e senha</t>
-  </si>
-  <si>
-    <t>Mensagem de erro deve ser exibido e usuário não deve ser logado</t>
-  </si>
-  <si>
-    <t>Acessar tela de login e inserir email inválido</t>
-  </si>
-  <si>
-    <t>Acessar tela de login e inserir email não cadastrado</t>
-  </si>
-  <si>
-    <t>Acessar tela de login, inserir email válido mas senha errada</t>
-  </si>
-  <si>
     <t>Buscar nome de ativo</t>
   </si>
   <si>
-    <t>Acessar index e digitar nome de ação existente</t>
-  </si>
-  <si>
     <t>Lista com ações correspondentes deve ser exibida</t>
   </si>
   <si>
-    <t>Acessar index e digitar nome de ação inexistente</t>
-  </si>
-  <si>
     <t>Mensagem de erro deve ser exibida no lugar da lista</t>
   </si>
   <si>
     <t>Ranking de Ações</t>
   </si>
   <si>
-    <t>Acessar index e verificar ranking de ações</t>
-  </si>
-  <si>
     <t>Ranking de ações deve ser exibida</t>
   </si>
   <si>
     <t>Visualizar valores de ativos móveis</t>
+  </si>
+  <si>
+    <t>Cadastrar ativos</t>
+  </si>
+  <si>
+    <t>Usuário criado com sucesso (deve ser cadastrado no sistema e redirecionado para a tela de login)</t>
+  </si>
+  <si>
+    <t>E-mail e/ou senha invalidos</t>
+  </si>
+  <si>
+    <t>Usuário não deve ser cadastrado no sistema e mensagem de erro explicativa deve ser exibida(erro ao criar o usuario)</t>
+  </si>
+  <si>
+    <t>Formulário não deve ser submetido e mostrar a mensagem (email e senha sao obrigatorios)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O usuário  deve estar logado no Sistema </t>
+  </si>
+  <si>
+    <t>O usuário não deve estar logado no sistema nem possuir conta cadastrada</t>
+  </si>
+  <si>
+    <t>Editar ativos</t>
+  </si>
+  <si>
+    <t>Excluir ativos</t>
+  </si>
+  <si>
+    <t>Criação de Usuário com informaçoes invalidas</t>
+  </si>
+  <si>
+    <t>Criação de Usuário sem informações obrigatorias</t>
+  </si>
+  <si>
+    <t>Apenas e-mail ou senha ou nenhum</t>
+  </si>
+  <si>
+    <t>Nome, valor e quantidade</t>
+  </si>
+  <si>
+    <t>Nome e/ou valor e/ou quantidade</t>
+  </si>
+  <si>
+    <t>Excluir ativo inexistente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sera adicionado a lista de ativos e ao grafico de ativos com mensagem(ativo cadastrado) </t>
+  </si>
+  <si>
+    <t>Nenhuma</t>
+  </si>
+  <si>
+    <t>(Acessar index e digitar) nome de ação existente</t>
+  </si>
+  <si>
+    <t>(Acessar index e digitar) nome de ação inexistente</t>
+  </si>
+  <si>
+    <t>Atualizar o ativo ja existente</t>
+  </si>
+  <si>
+    <t>Ativo retirado da lista de ativos com mensagem(ativo excluido com sucesso)</t>
+  </si>
+  <si>
+    <t>Mensagem de erro (ativo não encontrado)</t>
+  </si>
+  <si>
+    <t>Finance360</t>
+  </si>
+  <si>
+    <t>UCS01</t>
+  </si>
+  <si>
+    <t>UCS00</t>
+  </si>
+  <si>
+    <t>UCS04</t>
+  </si>
+  <si>
+    <t>UCS07</t>
+  </si>
+  <si>
+    <t>Ter uma conta cadastrada no sistema</t>
+  </si>
+  <si>
+    <t>Efetuar login com e-mail e senha invalidos</t>
+  </si>
+  <si>
+    <t>Efetuar login com e-mail correto e senha incorreta</t>
+  </si>
+  <si>
+    <t>E-mail e senha</t>
+  </si>
+  <si>
+    <t>E-mail e senha invalidos</t>
+  </si>
+  <si>
+    <t>E-mail correto senha incorreta</t>
+  </si>
+  <si>
+    <t>Nao realizar login, com mensagem(Senha incorreta.)</t>
+  </si>
+  <si>
+    <t>Nao realizar login, com mensagem(Usuario não encontrado.)</t>
+  </si>
+  <si>
+    <t>Nao se apliaca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -899,20 +945,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Bom" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Bom" xfId="1"/>
     <cellStyle name="Cálculo" xfId="2" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Célula de Verificação" xfId="3"/>
     <cellStyle name="Entrada" xfId="4" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Incorreto" xfId="5" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutra" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 3" xfId="7"/>
     <cellStyle name="Nota" xfId="8" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Porcentagem 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Ruim" xfId="5" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Porcentagem 2" xfId="9"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="11" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título 5" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Título 5" xfId="13"/>
     <cellStyle name="Total" xfId="14" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1039,7 +1085,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1074,7 +1120,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1263,11 +1309,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -1277,7 +1323,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1305,11 +1351,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -1319,7 +1365,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1336,21 +1382,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
@@ -1366,11 +1412,11 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="5.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:12" ht="18.75" thickBot="1">
       <c r="B2" s="24"/>
       <c r="C2" s="32" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
@@ -1382,14 +1428,14 @@
       <c r="K2" s="32"/>
       <c r="L2" s="33"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12">
       <c r="B3" s="25"/>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L3" s="26"/>
     </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" ht="15" customHeight="1">
       <c r="B4" s="25"/>
       <c r="C4" s="19" t="s">
         <v>0</v>
@@ -1408,53 +1454,59 @@
       </c>
       <c r="L4" s="26"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12">
       <c r="B5" s="25"/>
       <c r="C5" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="F5" s="20">
-        <v>1</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D5" s="22">
+        <v>3</v>
+      </c>
+      <c r="F5" s="20"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="20">
-        <v>0</v>
-      </c>
+      <c r="H5" s="20"/>
       <c r="L5" s="26"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12">
       <c r="B6" s="25"/>
       <c r="C6" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="22"/>
+        <v>55</v>
+      </c>
+      <c r="D6" s="22">
+        <v>3</v>
+      </c>
       <c r="F6" s="20"/>
-      <c r="G6" s="20">
-        <v>2</v>
-      </c>
+      <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12">
       <c r="B7" s="25"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="22">
+        <v>4</v>
+      </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12">
       <c r="B8" s="25"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="22">
+        <v>3</v>
+      </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12">
       <c r="B9" s="25"/>
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
@@ -1463,7 +1515,7 @@
       <c r="H9" s="20"/>
       <c r="L9" s="26"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12">
       <c r="B10" s="25"/>
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
@@ -1472,7 +1524,7 @@
       <c r="H10" s="20"/>
       <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12">
       <c r="B11" s="25"/>
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
@@ -1481,7 +1533,7 @@
       <c r="H11" s="20"/>
       <c r="L11" s="26"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12">
       <c r="B12" s="25"/>
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
@@ -1490,7 +1542,7 @@
       <c r="H12" s="20"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12">
       <c r="B13" s="25"/>
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
@@ -1499,7 +1551,7 @@
       <c r="H13" s="20"/>
       <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12">
       <c r="B14" s="25"/>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
@@ -1508,7 +1560,7 @@
       <c r="H14" s="20"/>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12">
       <c r="B15" s="25"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
@@ -1517,7 +1569,7 @@
       <c r="H15" s="20"/>
       <c r="L15" s="26"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12">
       <c r="B16" s="25"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
@@ -1526,7 +1578,7 @@
       <c r="H16" s="20"/>
       <c r="L16" s="26"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12">
       <c r="B17" s="25"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
@@ -1535,7 +1587,7 @@
       <c r="H17" s="20"/>
       <c r="L17" s="26"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12">
       <c r="B18" s="25"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
@@ -1544,7 +1596,7 @@
       <c r="H18" s="20"/>
       <c r="L18" s="26"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12">
       <c r="B19" s="25"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
@@ -1553,10 +1605,10 @@
       <c r="H19" s="20"/>
       <c r="L19" s="26"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12">
       <c r="B20" s="25"/>
       <c r="C20" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20" s="23"/>
       <c r="F20" s="17"/>
@@ -1564,23 +1616,23 @@
       <c r="H20" s="18"/>
       <c r="L20" s="26"/>
     </row>
-    <row r="21" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15">
       <c r="B21" s="25"/>
       <c r="C21" s="22">
         <f>COUNTA(C5:C19)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" s="22">
         <f>SUM(D5:D19)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F21" s="3">
         <f>SUM(F5:F19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <f>SUM(G5:G19)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <f>SUM(H5:H19)</f>
@@ -1588,11 +1640,11 @@
       </c>
       <c r="I21" s="27">
         <f>SUM(F21:H21)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L21" s="26"/>
     </row>
-    <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15" thickBot="1">
       <c r="B22" s="28"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -1617,30 +1669,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1654,105 +1706,104 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:W13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="4" customWidth="1"/>
     <col min="5" max="5" width="38.7109375" style="4" customWidth="1"/>
-    <col min="6" max="7" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="18">
       <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
     </row>
-    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="18">
       <c r="A2" s="35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
     </row>
-    <row r="3" spans="1:23" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15">
       <c r="A3" s="36" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
     </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="15">
       <c r="A4" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:23" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="15"/>
     </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="15">
       <c r="A6" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15">
       <c r="A8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="G8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:23" ht="57">
       <c r="A9" s="10">
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -1774,18 +1825,18 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
     </row>
-    <row r="10" spans="1:23" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="42.75">
       <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>37</v>
+        <v>60</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -1807,84 +1858,44 @@
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="42.75">
       <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>4</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>5</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="4" customWidth="1"/>
@@ -1896,85 +1907,85 @@
     <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="18">
       <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
     </row>
-    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="18">
       <c r="A2" s="35">
         <v>3</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
     </row>
-    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15">
       <c r="A3" s="36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
     </row>
-    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="15">
       <c r="A4" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="15"/>
     </row>
-    <row r="6" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="15">
       <c r="A6" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15">
       <c r="A8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="G8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:23" ht="57">
       <c r="A9" s="10">
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -1996,18 +2007,18 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
     </row>
-    <row r="10" spans="1:23" ht="57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="85.5">
       <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -2029,18 +2040,18 @@
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="1:23" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="57">
       <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -2064,104 +2075,105 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CE87E8-B205-4B43-98CC-58A63226EA42}">
-  <dimension ref="A1:W11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="4" customWidth="1"/>
     <col min="5" max="5" width="38.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
     </row>
-    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="18">
       <c r="A2" s="35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
     </row>
-    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="36" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
     </row>
-    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="16.5" customHeight="1">
       <c r="A4" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="15"/>
     </row>
-    <row r="6" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="15" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1"/>
+    <row r="8" spans="1:23" ht="15" customHeight="1">
       <c r="A8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="G8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:23" ht="57">
       <c r="A9" s="10">
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -2183,18 +2195,18 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
     </row>
-    <row r="10" spans="1:23" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="20.25" customHeight="1">
       <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -2216,18 +2228,222 @@
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="1:23" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="47.25" customHeight="1">
       <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:23" ht="30" customHeight="1">
+      <c r="A12" s="9">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="18">
+      <c r="A1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+    </row>
+    <row r="2" spans="1:23" ht="18">
+      <c r="A2" s="35">
+        <v>3</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+    </row>
+    <row r="3" spans="1:23" ht="15">
+      <c r="A3" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+    </row>
+    <row r="4" spans="1:23" ht="15">
+      <c r="A4" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:23" ht="15">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:23" ht="15">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15">
+      <c r="A8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="42.75">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>49</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+    </row>
+    <row r="10" spans="1:23" ht="28.5">
+      <c r="A10" s="9">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+    </row>
+    <row r="11" spans="1:23" ht="28.5">
+      <c r="A11" s="9">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>

--- a/F360 - Finance360/Desenvolvimento/4.Teste/F360 - Roteiro de Teste.xlsx
+++ b/F360 - Finance360/Desenvolvimento/4.Teste/F360 - Roteiro de Teste.xlsx
@@ -1323,7 +1323,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1365,7 +1365,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1382,7 +1382,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
